--- a/data/output/FV2504_FV2410/UTILMD/55017.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55017.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="273">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="273">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -975,6 +975,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U117" totalsRowShown="0">
+  <autoFilter ref="A1:U117"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1264,7 +1294,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6466,5 +6499,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55017.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55017.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="387">
   <si>
     <t>#</t>
   </si>
@@ -5196,44 +5196,42 @@
       <c r="V71" s="5"/>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5" t="s">
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K72" s="5"/>
-      <c r="L72" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M72" s="5" t="s">
+      <c r="K72" s="2"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N72" s="5" t="s">
+      <c r="N72" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5" t="s">
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V72" s="5"/>
+      <c r="V72" s="2"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="5" t="s">
@@ -5371,9 +5369,7 @@
         <v>221</v>
       </c>
       <c r="K75" s="5"/>
-      <c r="L75" s="7" t="s">
-        <v>247</v>
-      </c>
+      <c r="L75" s="4"/>
       <c r="M75" s="5" t="s">
         <v>35</v>
       </c>
@@ -5400,44 +5396,42 @@
       <c r="V75" s="5"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K76" s="5"/>
-      <c r="L76" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M76" s="5" t="s">
+      <c r="K76" s="2"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5" t="s">
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V76" s="5"/>
+      <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
@@ -5882,44 +5876,42 @@
       <c r="V85" s="5"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M86" s="5" t="s">
+      <c r="K86" s="2"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5" t="s">
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V86" s="5"/>
+      <c r="V86" s="2"/>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="5" t="s">

--- a/data/output/FV2504_FV2410/UTILMD/55017.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55017.xlsx
@@ -1301,7 +1301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1324,6 +1324,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1332,6 +1335,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1774,7 +1780,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2138,7 +2144,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2284,7 +2290,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2486,7 +2492,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2794,7 +2800,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2994,7 +3000,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3368,7 +3374,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3676,7 +3682,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3852,25 +3858,25 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
       <c r="J43" s="6" t="s">
         <v>226</v>
       </c>
@@ -3880,22 +3886,22 @@
       <c r="L43" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
       <c r="U43" s="6" t="s">
         <v>269</v>
       </c>
@@ -4086,26 +4092,26 @@
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="L47" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M47" s="5"/>
@@ -4123,33 +4129,33 @@
       <c r="A48" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M48" s="5"/>
@@ -4167,31 +4173,31 @@
       <c r="A49" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M49" s="5"/>
@@ -4209,33 +4215,33 @@
       <c r="A50" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9" t="s">
+      <c r="J50" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M50" s="5"/>
@@ -4256,26 +4262,26 @@
       <c r="B51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M51" s="5"/>
@@ -4293,33 +4299,33 @@
       <c r="A52" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M52" s="5"/>
@@ -4337,33 +4343,33 @@
       <c r="A53" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="J53" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M53" s="5"/>
@@ -4391,29 +4397,29 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11" t="s">
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11" t="s">
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="V54" s="11" t="s">
+      <c r="V54" s="13" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4431,35 +4437,35 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="R55" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="U55" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V55" s="11"/>
+      <c r="U55" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -4475,33 +4481,33 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q56" s="11" t="s">
+      <c r="Q56" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="U56" s="11" t="s">
+      <c r="U56" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="V56" s="11"/>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4517,35 +4523,35 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="R57" s="11" t="s">
+      <c r="R57" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11" t="s">
+      <c r="S57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="U57" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V57" s="11"/>
+      <c r="U57" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -4561,29 +4567,29 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11" t="s">
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11" t="s">
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="V58" s="11"/>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -4599,35 +4605,35 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="P59" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q59" s="11" t="s">
+      <c r="Q59" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="R59" s="11" t="s">
+      <c r="R59" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11" t="s">
+      <c r="S59" s="13"/>
+      <c r="T59" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U59" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V59" s="11"/>
+      <c r="U59" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V59" s="13"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -4643,35 +4649,35 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q60" s="11" t="s">
+      <c r="Q60" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="R60" s="11" t="s">
+      <c r="R60" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11" t="s">
+      <c r="S60" s="13"/>
+      <c r="T60" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="U60" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V60" s="11"/>
+      <c r="U60" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4687,35 +4693,35 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q61" s="11" t="s">
+      <c r="Q61" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="R61" s="11" t="s">
+      <c r="R61" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11" t="s">
+      <c r="S61" s="13"/>
+      <c r="T61" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="U61" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V61" s="11"/>
+      <c r="U61" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4731,33 +4737,33 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11" t="s">
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V62" s="11"/>
+      <c r="U62" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4773,83 +4779,83 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11" t="s">
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11" t="s">
+      <c r="S63" s="13"/>
+      <c r="T63" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="U63" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V63" s="11"/>
+      <c r="U63" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="2"/>
       <c r="F64" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K64" s="2" t="s">
         <v>239</v>
       </c>
       <c r="L64" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="M64" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O64" s="5" t="s">
+      <c r="O64" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P64" s="5"/>
+      <c r="P64" s="2"/>
       <c r="Q64" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5" t="s">
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="V64" s="5" t="s">
+      <c r="V64" s="2" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5040,22 +5046,22 @@
       <c r="B68" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8" t="s">
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="K68" s="8" t="s">
+      <c r="K68" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="L68" s="9" t="s">
+      <c r="L68" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M68" s="5"/>
@@ -5073,27 +5079,27 @@
       <c r="A69" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
+      <c r="E69" s="9"/>
+      <c r="F69" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8" t="s">
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="9" t="s">
+      <c r="K69" s="9"/>
+      <c r="L69" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M69" s="5"/>
@@ -5111,33 +5117,33 @@
       <c r="A70" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G70" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8" t="s">
+      <c r="H70" s="9"/>
+      <c r="I70" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K70" s="8"/>
-      <c r="L70" s="9" t="s">
+      <c r="J70" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K70" s="9"/>
+      <c r="L70" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M70" s="5"/>
@@ -5155,33 +5161,33 @@
       <c r="A71" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8" t="s">
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="K71" s="8" t="s">
+      <c r="K71" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="L71" s="9" t="s">
+      <c r="L71" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M71" s="5"/>
@@ -5216,7 +5222,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5416,7 +5422,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5598,21 +5604,21 @@
       <c r="V79" s="5"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
       <c r="J80" s="6" t="s">
         <v>229</v>
       </c>
@@ -5622,18 +5628,18 @@
       <c r="L80" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
       <c r="U80" s="6" t="s">
         <v>271</v>
       </c>
@@ -5756,24 +5762,24 @@
       <c r="B83" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
+      <c r="E83" s="9"/>
+      <c r="F83" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="9" t="s">
+      <c r="K83" s="9"/>
+      <c r="L83" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M83" s="5"/>
@@ -5791,33 +5797,33 @@
       <c r="A84" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8" t="s">
+      <c r="H84" s="9"/>
+      <c r="I84" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J84" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="9" t="s">
+      <c r="J84" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K84" s="9"/>
+      <c r="L84" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M84" s="5"/>
@@ -5835,33 +5841,33 @@
       <c r="A85" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8" t="s">
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J85" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="K85" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="L85" s="9" t="s">
+      <c r="L85" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M85" s="5"/>
@@ -5896,7 +5902,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6148,20 +6154,20 @@
       <c r="B91" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8" t="s">
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="9" t="s">
+      <c r="K91" s="9"/>
+      <c r="L91" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M91" s="5"/>
@@ -6179,27 +6185,27 @@
       <c r="A92" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8" t="s">
+      <c r="E92" s="9"/>
+      <c r="F92" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8" t="s">
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="9" t="s">
+      <c r="K92" s="9"/>
+      <c r="L92" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M92" s="5"/>
@@ -6217,33 +6223,33 @@
       <c r="A93" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8" t="s">
+      <c r="H93" s="9"/>
+      <c r="I93" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J93" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K93" s="8"/>
-      <c r="L93" s="9" t="s">
+      <c r="J93" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K93" s="9"/>
+      <c r="L93" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M93" s="5"/>
@@ -6261,33 +6267,33 @@
       <c r="A94" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G94" s="8" t="s">
+      <c r="G94" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8" t="s">
+      <c r="H94" s="9"/>
+      <c r="I94" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="J94" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K94" s="8"/>
-      <c r="L94" s="9" t="s">
+      <c r="J94" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K94" s="9"/>
+      <c r="L94" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M94" s="5"/>
@@ -6308,22 +6314,22 @@
       <c r="B95" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8" t="s">
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="K95" s="8" t="s">
+      <c r="K95" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="L95" s="9" t="s">
+      <c r="L95" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M95" s="5"/>
@@ -6341,27 +6347,27 @@
       <c r="A96" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8" t="s">
+      <c r="E96" s="9"/>
+      <c r="F96" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8" t="s">
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="9" t="s">
+      <c r="K96" s="9"/>
+      <c r="L96" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M96" s="5"/>
@@ -6379,33 +6385,33 @@
       <c r="A97" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8" t="s">
+      <c r="H97" s="9"/>
+      <c r="I97" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="J97" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9" t="s">
+      <c r="J97" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K97" s="9"/>
+      <c r="L97" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M97" s="5"/>
@@ -6423,31 +6429,31 @@
       <c r="A98" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8" t="s">
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="J98" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="9" t="s">
+      <c r="J98" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K98" s="9"/>
+      <c r="L98" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M98" s="5"/>
@@ -6465,33 +6471,33 @@
       <c r="A99" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8" t="s">
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="J99" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K99" s="8"/>
-      <c r="L99" s="9" t="s">
+      <c r="J99" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K99" s="9"/>
+      <c r="L99" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M99" s="5"/>
@@ -6509,31 +6515,31 @@
       <c r="A100" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8" t="s">
+      <c r="F100" s="9"/>
+      <c r="G100" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8" t="s">
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="J100" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="J100" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M100" s="5"/>
@@ -6554,24 +6560,24 @@
       <c r="B101" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8" t="s">
+      <c r="E101" s="9"/>
+      <c r="F101" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8" t="s">
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="K101" s="8"/>
-      <c r="L101" s="9" t="s">
+      <c r="K101" s="9"/>
+      <c r="L101" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M101" s="5"/>
@@ -6589,33 +6595,33 @@
       <c r="A102" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G102" s="8" t="s">
+      <c r="G102" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8" t="s">
+      <c r="H102" s="9"/>
+      <c r="I102" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="J102" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K102" s="8"/>
-      <c r="L102" s="9" t="s">
+      <c r="J102" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K102" s="9"/>
+      <c r="L102" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M102" s="5"/>
@@ -6633,31 +6639,31 @@
       <c r="A103" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8" t="s">
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="J103" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K103" s="8"/>
-      <c r="L103" s="9" t="s">
+      <c r="J103" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K103" s="9"/>
+      <c r="L103" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M103" s="5"/>
@@ -6678,24 +6684,24 @@
       <c r="B104" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8" t="s">
+      <c r="E104" s="9"/>
+      <c r="F104" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8" t="s">
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="K104" s="8"/>
-      <c r="L104" s="9" t="s">
+      <c r="K104" s="9"/>
+      <c r="L104" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M104" s="5"/>
@@ -6713,33 +6719,33 @@
       <c r="A105" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8" t="s">
+      <c r="H105" s="9"/>
+      <c r="I105" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J105" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K105" s="8"/>
-      <c r="L105" s="9" t="s">
+      <c r="J105" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K105" s="9"/>
+      <c r="L105" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M105" s="5"/>
@@ -6757,33 +6763,33 @@
       <c r="A106" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8" t="s">
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J106" s="8" t="s">
+      <c r="J106" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="K106" s="8" t="s">
+      <c r="K106" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="L106" s="9" t="s">
+      <c r="L106" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M106" s="5"/>
@@ -6804,22 +6810,22 @@
       <c r="B107" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8" t="s">
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="K107" s="8" t="s">
+      <c r="K107" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="L107" s="9" t="s">
+      <c r="L107" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M107" s="5"/>
@@ -6837,27 +6843,27 @@
       <c r="A108" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8" t="s">
+      <c r="E108" s="9"/>
+      <c r="F108" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8" t="s">
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="K108" s="8"/>
-      <c r="L108" s="9" t="s">
+      <c r="K108" s="9"/>
+      <c r="L108" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M108" s="5"/>
@@ -6875,33 +6881,33 @@
       <c r="A109" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="G109" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8" t="s">
+      <c r="H109" s="9"/>
+      <c r="I109" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J109" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K109" s="8"/>
-      <c r="L109" s="9" t="s">
+      <c r="J109" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K109" s="9"/>
+      <c r="L109" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M109" s="5"/>
@@ -6919,31 +6925,31 @@
       <c r="A110" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8" t="s">
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J110" s="8" t="s">
+      <c r="J110" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="K110" s="8"/>
-      <c r="L110" s="9" t="s">
+      <c r="K110" s="9"/>
+      <c r="L110" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M110" s="5"/>
@@ -6961,33 +6967,33 @@
       <c r="A111" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8" t="s">
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J111" s="8" t="s">
+      <c r="J111" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="K111" s="8" t="s">
+      <c r="K111" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="L111" s="9" t="s">
+      <c r="L111" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M111" s="5"/>
@@ -7005,31 +7011,31 @@
       <c r="A112" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="F112" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8" t="s">
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J112" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K112" s="8"/>
-      <c r="L112" s="9" t="s">
+      <c r="J112" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K112" s="9"/>
+      <c r="L112" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M112" s="5"/>
@@ -7047,31 +7053,31 @@
       <c r="A113" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="F113" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8" t="s">
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="J113" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K113" s="8"/>
-      <c r="L113" s="9" t="s">
+      <c r="J113" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K113" s="9"/>
+      <c r="L113" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M113" s="5"/>
@@ -7089,31 +7095,31 @@
       <c r="A114" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8" t="s">
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="J114" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K114" s="8"/>
-      <c r="L114" s="9" t="s">
+      <c r="J114" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K114" s="9"/>
+      <c r="L114" s="10" t="s">
         <v>248</v>
       </c>
       <c r="M114" s="5"/>
@@ -7128,48 +7134,48 @@
       <c r="V114" s="5"/>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5" t="s">
+      <c r="C115" s="2"/>
+      <c r="D115" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E115" s="5"/>
+      <c r="E115" s="2"/>
       <c r="F115" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5" t="s">
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K115" s="5"/>
+      <c r="K115" s="2"/>
       <c r="L115" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M115" s="5" t="s">
+      <c r="M115" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5" t="s">
+      <c r="N115" s="2"/>
+      <c r="O115" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P115" s="5"/>
+      <c r="P115" s="2"/>
       <c r="Q115" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-      <c r="U115" s="5" t="s">
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V115" s="5"/>
+      <c r="V115" s="2"/>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="5" t="s">
